--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Rarres2-Cmklr1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Rarres2-Cmklr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Cmklr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>41.3996183475244</v>
+        <v>0.9064200000000001</v>
       </c>
       <c r="H2">
-        <v>41.3996183475244</v>
+        <v>2.71926</v>
       </c>
       <c r="I2">
-        <v>0.8536994844338214</v>
+        <v>0.01741933661286065</v>
       </c>
       <c r="J2">
-        <v>0.8536994844338214</v>
+        <v>0.01741933661286065</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.49815214751325</v>
+        <v>4.576447</v>
       </c>
       <c r="N2">
-        <v>2.49815214751325</v>
+        <v>13.729341</v>
       </c>
       <c r="O2">
-        <v>0.03858840441935592</v>
+        <v>0.06514895840416586</v>
       </c>
       <c r="P2">
-        <v>0.03858840441935592</v>
+        <v>0.06514895840416586</v>
       </c>
       <c r="Q2">
-        <v>103.422545481097</v>
+        <v>4.148183089740001</v>
       </c>
       <c r="R2">
-        <v>103.422545481097</v>
+        <v>37.33364780766</v>
       </c>
       <c r="S2">
-        <v>0.03294290095792795</v>
+        <v>0.001134851636419422</v>
       </c>
       <c r="T2">
-        <v>0.03294290095792795</v>
+        <v>0.001134851636419422</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>41.3996183475244</v>
+        <v>0.9064200000000001</v>
       </c>
       <c r="H3">
-        <v>41.3996183475244</v>
+        <v>2.71926</v>
       </c>
       <c r="I3">
-        <v>0.8536994844338214</v>
+        <v>0.01741933661286065</v>
       </c>
       <c r="J3">
-        <v>0.8536994844338214</v>
+        <v>0.01741933661286065</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>24.8916811768297</v>
+        <v>25.39955333333333</v>
       </c>
       <c r="N3">
-        <v>24.8916811768297</v>
+        <v>76.19865999999999</v>
       </c>
       <c r="O3">
-        <v>0.3844963009500122</v>
+        <v>0.361580598136005</v>
       </c>
       <c r="P3">
-        <v>0.3844963009500122</v>
+        <v>0.361580598136005</v>
       </c>
       <c r="Q3">
-        <v>1030.506100749007</v>
+        <v>23.0226631324</v>
       </c>
       <c r="R3">
-        <v>1030.506100749007</v>
+        <v>207.2039681916</v>
       </c>
       <c r="S3">
-        <v>0.3282442938877368</v>
+        <v>0.006298494151610565</v>
       </c>
       <c r="T3">
-        <v>0.3282442938877368</v>
+        <v>0.006298494151610565</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>41.3996183475244</v>
+        <v>0.9064200000000001</v>
       </c>
       <c r="H4">
-        <v>41.3996183475244</v>
+        <v>2.71926</v>
       </c>
       <c r="I4">
-        <v>0.8536994844338214</v>
+        <v>0.01741933661286065</v>
       </c>
       <c r="J4">
-        <v>0.8536994844338214</v>
+        <v>0.01741933661286065</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>35.2350790319343</v>
+        <v>38.144755</v>
       </c>
       <c r="N4">
-        <v>35.2350790319343</v>
+        <v>114.434265</v>
       </c>
       <c r="O4">
-        <v>0.5442684829207494</v>
+        <v>0.5430175541926078</v>
       </c>
       <c r="P4">
-        <v>0.5442684829207494</v>
+        <v>0.5430175541926079</v>
       </c>
       <c r="Q4">
-        <v>1458.71882436694</v>
+        <v>34.5751688271</v>
       </c>
       <c r="R4">
-        <v>1458.71882436694</v>
+        <v>311.1765194439</v>
       </c>
       <c r="S4">
-        <v>0.4646417232630218</v>
+        <v>0.009459005563173336</v>
       </c>
       <c r="T4">
-        <v>0.4646417232630218</v>
+        <v>0.009459005563173337</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>41.3996183475244</v>
+        <v>0.9064200000000001</v>
       </c>
       <c r="H5">
-        <v>41.3996183475244</v>
+        <v>2.71926</v>
       </c>
       <c r="I5">
-        <v>0.8536994844338214</v>
+        <v>0.01741933661286065</v>
       </c>
       <c r="J5">
-        <v>0.8536994844338214</v>
+        <v>0.01741933661286065</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.11350285169072</v>
+        <v>2.125141333333333</v>
       </c>
       <c r="N5">
-        <v>2.11350285169072</v>
+        <v>6.375424</v>
       </c>
       <c r="O5">
-        <v>0.03264681170988244</v>
+        <v>0.03025288926722125</v>
       </c>
       <c r="P5">
-        <v>0.03264681170988244</v>
+        <v>0.03025288926722126</v>
       </c>
       <c r="Q5">
-        <v>87.49821143640028</v>
+        <v>1.92627060736</v>
       </c>
       <c r="R5">
-        <v>87.49821143640028</v>
+        <v>17.33643546624</v>
       </c>
       <c r="S5">
-        <v>0.02787056632513468</v>
+        <v>0.0005269852616573261</v>
       </c>
       <c r="T5">
-        <v>0.02787056632513468</v>
+        <v>0.0005269852616573263</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.0947512783175</v>
+        <v>42.58841866666666</v>
       </c>
       <c r="H6">
-        <v>7.0947512783175</v>
+        <v>127.765256</v>
       </c>
       <c r="I6">
-        <v>0.1463005155661786</v>
+        <v>0.8184528149909583</v>
       </c>
       <c r="J6">
-        <v>0.1463005155661786</v>
+        <v>0.8184528149909585</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.49815214751325</v>
+        <v>4.576447</v>
       </c>
       <c r="N6">
-        <v>2.49815214751325</v>
+        <v>13.729341</v>
       </c>
       <c r="O6">
-        <v>0.03858840441935592</v>
+        <v>0.06514895840416586</v>
       </c>
       <c r="P6">
-        <v>0.03858840441935592</v>
+        <v>0.06514895840416586</v>
       </c>
       <c r="Q6">
-        <v>17.72376814200124</v>
+        <v>194.9036408418106</v>
       </c>
       <c r="R6">
-        <v>17.72376814200124</v>
+        <v>1754.132767576296</v>
       </c>
       <c r="S6">
-        <v>0.005645503461427975</v>
+        <v>0.0533213483996184</v>
       </c>
       <c r="T6">
-        <v>0.005645503461427975</v>
+        <v>0.05332134839961841</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.0947512783175</v>
+        <v>42.58841866666666</v>
       </c>
       <c r="H7">
-        <v>7.0947512783175</v>
+        <v>127.765256</v>
       </c>
       <c r="I7">
-        <v>0.1463005155661786</v>
+        <v>0.8184528149909583</v>
       </c>
       <c r="J7">
-        <v>0.1463005155661786</v>
+        <v>0.8184528149909585</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.8916811768297</v>
+        <v>25.39955333333333</v>
       </c>
       <c r="N7">
-        <v>24.8916811768297</v>
+        <v>76.19865999999999</v>
       </c>
       <c r="O7">
-        <v>0.3844963009500122</v>
+        <v>0.361580598136005</v>
       </c>
       <c r="P7">
-        <v>0.3844963009500122</v>
+        <v>0.361580598136005</v>
       </c>
       <c r="Q7">
-        <v>176.6002868487842</v>
+        <v>1081.726811306329</v>
       </c>
       <c r="R7">
-        <v>176.6002868487842</v>
+        <v>9735.541301756959</v>
       </c>
       <c r="S7">
-        <v>0.05625200706227534</v>
+        <v>0.2959366583905277</v>
       </c>
       <c r="T7">
-        <v>0.05625200706227534</v>
+        <v>0.2959366583905277</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.0947512783175</v>
+        <v>42.58841866666666</v>
       </c>
       <c r="H8">
-        <v>7.0947512783175</v>
+        <v>127.765256</v>
       </c>
       <c r="I8">
-        <v>0.1463005155661786</v>
+        <v>0.8184528149909583</v>
       </c>
       <c r="J8">
-        <v>0.1463005155661786</v>
+        <v>0.8184528149909585</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>35.2350790319343</v>
+        <v>38.144755</v>
       </c>
       <c r="N8">
-        <v>35.2350790319343</v>
+        <v>114.434265</v>
       </c>
       <c r="O8">
-        <v>0.5442684829207494</v>
+        <v>0.5430175541926078</v>
       </c>
       <c r="P8">
-        <v>0.5442684829207494</v>
+        <v>0.5430175541926079</v>
       </c>
       <c r="Q8">
-        <v>249.984122003434</v>
+        <v>1624.524795877426</v>
       </c>
       <c r="R8">
-        <v>249.984122003434</v>
+        <v>14620.72316289684</v>
       </c>
       <c r="S8">
-        <v>0.07962675965772749</v>
+        <v>0.4444342458184451</v>
       </c>
       <c r="T8">
-        <v>0.07962675965772749</v>
+        <v>0.4444342458184453</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>42.58841866666666</v>
+      </c>
+      <c r="H9">
+        <v>127.765256</v>
+      </c>
+      <c r="I9">
+        <v>0.8184528149909583</v>
+      </c>
+      <c r="J9">
+        <v>0.8184528149909585</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.125141333333333</v>
+      </c>
+      <c r="N9">
+        <v>6.375424</v>
+      </c>
+      <c r="O9">
+        <v>0.03025288926722125</v>
+      </c>
+      <c r="P9">
+        <v>0.03025288926722126</v>
+      </c>
+      <c r="Q9">
+        <v>90.50640882983821</v>
+      </c>
+      <c r="R9">
+        <v>814.5576794685439</v>
+      </c>
+      <c r="S9">
+        <v>0.02476056238236698</v>
+      </c>
+      <c r="T9">
+        <v>0.02476056238236699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>8.540438</v>
+      </c>
+      <c r="H10">
+        <v>25.621314</v>
+      </c>
+      <c r="I10">
+        <v>0.164127848396181</v>
+      </c>
+      <c r="J10">
+        <v>0.164127848396181</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.576447</v>
+      </c>
+      <c r="N10">
+        <v>13.729341</v>
+      </c>
+      <c r="O10">
+        <v>0.06514895840416586</v>
+      </c>
+      <c r="P10">
+        <v>0.06514895840416586</v>
+      </c>
+      <c r="Q10">
+        <v>39.084861863786</v>
+      </c>
+      <c r="R10">
+        <v>351.763756774074</v>
+      </c>
+      <c r="S10">
+        <v>0.01069275836812804</v>
+      </c>
+      <c r="T10">
+        <v>0.01069275836812804</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>7.0947512783175</v>
-      </c>
-      <c r="H9">
-        <v>7.0947512783175</v>
-      </c>
-      <c r="I9">
-        <v>0.1463005155661786</v>
-      </c>
-      <c r="J9">
-        <v>0.1463005155661786</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>2.11350285169072</v>
-      </c>
-      <c r="N9">
-        <v>2.11350285169072</v>
-      </c>
-      <c r="O9">
-        <v>0.03264681170988244</v>
-      </c>
-      <c r="P9">
-        <v>0.03264681170988244</v>
-      </c>
-      <c r="Q9">
-        <v>14.99477705876042</v>
-      </c>
-      <c r="R9">
-        <v>14.99477705876042</v>
-      </c>
-      <c r="S9">
-        <v>0.004776245384747756</v>
-      </c>
-      <c r="T9">
-        <v>0.004776245384747756</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>8.540438</v>
+      </c>
+      <c r="H11">
+        <v>25.621314</v>
+      </c>
+      <c r="I11">
+        <v>0.164127848396181</v>
+      </c>
+      <c r="J11">
+        <v>0.164127848396181</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>25.39955333333333</v>
+      </c>
+      <c r="N11">
+        <v>76.19865999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.361580598136005</v>
+      </c>
+      <c r="P11">
+        <v>0.361580598136005</v>
+      </c>
+      <c r="Q11">
+        <v>216.9233104710266</v>
+      </c>
+      <c r="R11">
+        <v>1952.30979423924</v>
+      </c>
+      <c r="S11">
+        <v>0.05934544559386667</v>
+      </c>
+      <c r="T11">
+        <v>0.05934544559386667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>8.540438</v>
+      </c>
+      <c r="H12">
+        <v>25.621314</v>
+      </c>
+      <c r="I12">
+        <v>0.164127848396181</v>
+      </c>
+      <c r="J12">
+        <v>0.164127848396181</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>38.144755</v>
+      </c>
+      <c r="N12">
+        <v>114.434265</v>
+      </c>
+      <c r="O12">
+        <v>0.5430175541926078</v>
+      </c>
+      <c r="P12">
+        <v>0.5430175541926079</v>
+      </c>
+      <c r="Q12">
+        <v>325.77291510269</v>
+      </c>
+      <c r="R12">
+        <v>2931.95623592421</v>
+      </c>
+      <c r="S12">
+        <v>0.08912430281098933</v>
+      </c>
+      <c r="T12">
+        <v>0.08912430281098935</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>8.540438</v>
+      </c>
+      <c r="H13">
+        <v>25.621314</v>
+      </c>
+      <c r="I13">
+        <v>0.164127848396181</v>
+      </c>
+      <c r="J13">
+        <v>0.164127848396181</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.125141333333333</v>
+      </c>
+      <c r="N13">
+        <v>6.375424</v>
+      </c>
+      <c r="O13">
+        <v>0.03025288926722125</v>
+      </c>
+      <c r="P13">
+        <v>0.03025288926722126</v>
+      </c>
+      <c r="Q13">
+        <v>18.14963779857067</v>
+      </c>
+      <c r="R13">
+        <v>163.346740187136</v>
+      </c>
+      <c r="S13">
+        <v>0.004965341623196941</v>
+      </c>
+      <c r="T13">
+        <v>0.004965341623196942</v>
       </c>
     </row>
   </sheetData>
